--- a/KMO_IO_M/V2_4OUT/Quote_t-r9w79317a-20sets-kmo_io_mv2_4 2019-6-27.xlsx
+++ b/KMO_IO_M/V2_4OUT/Quote_t-r9w79317a-20sets-kmo_io_mv2_4 2019-6-27.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="317">
   <si>
     <t>20sets</t>
   </si>
@@ -220,32 +220,6 @@
   </si>
   <si>
     <t>EL1</t>
-  </si>
-  <si>
-    <r>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>碌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>H</t>
-    </r>
-  </si>
-  <si>
-    <t>INDUCTOR-0805-3.3UH</t>
   </si>
   <si>
     <t>Inductors</t>
@@ -499,9 +473,6 @@
     <t>OD2</t>
   </si>
   <si>
-    <t>ZENER-DIODESMB</t>
-  </si>
-  <si>
     <t>Z-Diode</t>
   </si>
   <si>
@@ -963,9 +934,6 @@
     <t>Refer to：W79317AXR6-300sets-BOM 2019-4-3</t>
   </si>
   <si>
-    <t>Part Number</t>
-  </si>
-  <si>
     <t>TANT 10UF 16V A3216</t>
   </si>
   <si>
@@ -990,9 +958,6 @@
     <t>61200621621</t>
   </si>
   <si>
-    <t xml:space="preserve"> 1SMB5934B </t>
-  </si>
-  <si>
     <t>24V</t>
   </si>
   <si>
@@ -1012,6 +977,57 @@
   </si>
   <si>
     <t xml:space="preserve">PJ-002BH-SMT-TR </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1SMB5934B    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZENER-DIODESMB 1SMB5934BT3G </t>
+  </si>
+  <si>
+    <t>10uH</t>
+  </si>
+  <si>
+    <t>INDUCTOR-0805-10UH</t>
+  </si>
+  <si>
+    <t>PE-0805FB102ST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSTNE8M00G550000R0 </t>
+  </si>
+  <si>
+    <t>Part Number Offers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  445C33D25M00000 </t>
+  </si>
+  <si>
+    <t>CAY16-682J4LF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0ZCJ0075AF2E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0ZCJ0010FF2E </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  SMD1812B050TF </t>
+  </si>
+  <si>
+    <t xml:space="preserve">UWT1H221MNL1GS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  S3B-XH-A(LF)(SN) </t>
+  </si>
+  <si>
+    <t>61201421621</t>
+  </si>
+  <si>
+    <t>Arr+I27:R27ay Chip Resistor</t>
+  </si>
+  <si>
+    <t>CAY+I27:R2716-682J4LF</t>
   </si>
 </sst>
 </file>
@@ -1019,11 +1035,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
-    <numFmt numFmtId="168" formatCode="\$#,##0.000_);[Red]\(\$#,##0.000\)"/>
-    <numFmt numFmtId="169" formatCode="\$#,##0.000;\-\$#,##0.000"/>
-    <numFmt numFmtId="170" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
+    <numFmt numFmtId="164" formatCode="\$#,##0.000_);[Red]\(\$#,##0.000\)"/>
+    <numFmt numFmtId="165" formatCode="\$#,##0.000;\-\$#,##0.000"/>
+    <numFmt numFmtId="166" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,13 +1105,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1164,10 +1173,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1176,10 +1185,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1191,7 +1200,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1203,7 +1212,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1212,10 +1221,10 @@
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyAlignment="1">
@@ -1227,13 +1236,13 @@
     <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1245,14 +1254,14 @@
     <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1561,8 +1570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F110" sqref="F110"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1571,8 +1580,8 @@
     <col min="2" max="2" width="9.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="51" style="3" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" style="30" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.85546875" style="4" customWidth="1"/>
     <col min="9" max="9" width="24.42578125" customWidth="1"/>
     <col min="11" max="11" width="28.28515625" bestFit="1" customWidth="1"/>
@@ -1595,7 +1604,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="25" t="s">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>5</v>
@@ -1665,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>24</v>
@@ -1713,9 +1722,9 @@
         <v>30</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>295</v>
-      </c>
-      <c r="G3" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>31</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -2177,7 +2186,7 @@
         <v>57</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>58</v>
@@ -2309,7 +2318,7 @@
         <v>57</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>58</v>
@@ -2352,19 +2361,19 @@
         <v>66</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F17" s="28" t="s">
-        <v>28</v>
+        <v>302</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>304</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>68</v>
+        <v>303</v>
       </c>
       <c r="H17" s="12">
         <v>805</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J17" s="13"/>
       <c r="K17" s="13"/>
@@ -2376,13 +2385,13 @@
       <c r="Q17" s="13"/>
       <c r="R17" s="13"/>
       <c r="S17" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
       <c r="V17" s="13"/>
       <c r="W17" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -2394,25 +2403,25 @@
         <v>54</v>
       </c>
       <c r="C18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="F18" s="27" t="s">
+        <v>286</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="I18" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>290</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I18" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="J18" s="13"/>
       <c r="K18" s="13"/>
@@ -2441,20 +2450,20 @@
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E19" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F19" s="26"/>
       <c r="G19" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H19" s="12">
         <v>805</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="13"/>
@@ -2483,20 +2492,20 @@
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E20" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F20" s="26"/>
       <c r="G20" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H20" s="12">
         <v>805</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13"/>
@@ -2525,20 +2534,20 @@
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F21" s="26"/>
       <c r="G21" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H21" s="12">
         <v>805</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J21" s="13"/>
       <c r="K21" s="13"/>
@@ -2567,20 +2576,20 @@
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E22" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F22" s="26"/>
       <c r="G22" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H22" s="12">
         <v>805</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J22" s="13"/>
       <c r="K22" s="13"/>
@@ -2609,20 +2618,20 @@
       </c>
       <c r="C23" s="7"/>
       <c r="D23" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F23" s="26"/>
       <c r="G23" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H23" s="12">
         <v>805</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J23" s="13"/>
       <c r="K23" s="13"/>
@@ -2651,20 +2660,20 @@
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F24" s="26"/>
       <c r="G24" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I24" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="J24" s="13"/>
       <c r="K24" s="13"/>
@@ -2697,19 +2706,19 @@
         <v>22</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F25" s="20">
-        <v>61201421621</v>
+        <v>91</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>314</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>25</v>
@@ -2744,40 +2753,40 @@
         <v>30.240000000000002</v>
       </c>
       <c r="C26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="F26" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="I26" s="8" t="s">
         <v>95</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>291</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="I26" s="8" t="s">
-        <v>97</v>
       </c>
       <c r="J26" s="13"/>
       <c r="K26" s="13"/>
       <c r="L26" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="M26" s="13"/>
       <c r="N26" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="O26" s="13">
         <v>1467674</v>
       </c>
       <c r="P26" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="Q26" s="13"/>
       <c r="R26" s="13"/>
@@ -2799,22 +2808,22 @@
         <v>22</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>102</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>22</v>
+        <v>100</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>308</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="H27" s="30" t="s">
+        <v>316</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>91</v>
+        <v>315</v>
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
@@ -2847,22 +2856,22 @@
         <v>28</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="F28" s="28" t="s">
-        <v>28</v>
+        <v>100</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>308</v>
       </c>
       <c r="G28" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I28" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="J28" s="13"/>
       <c r="K28" s="13"/>
@@ -2894,25 +2903,25 @@
         <v>1.08</v>
       </c>
       <c r="C29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="F29" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="H29" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F29" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="G29" s="8" t="s">
+      <c r="I29" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I29" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="J29" s="13"/>
       <c r="K29" s="13"/>
@@ -2940,25 +2949,25 @@
         <v>1.08</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E30" s="8" t="s">
+      <c r="F30" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H30" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F30" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="G30" s="8" t="s">
+      <c r="I30" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
@@ -2986,25 +2995,25 @@
         <v>1.08</v>
       </c>
       <c r="C31" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="E31" s="8" t="s">
+      <c r="F31" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H31" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F31" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="G31" s="8" t="s">
+      <c r="I31" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I31" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
@@ -3032,25 +3041,25 @@
         <v>1.08</v>
       </c>
       <c r="C32" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E32" s="8" t="s">
+      <c r="F32" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F32" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="G32" s="8" t="s">
+      <c r="I32" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I32" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
@@ -3078,25 +3087,25 @@
         <v>1.08</v>
       </c>
       <c r="C33" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D33" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="E33" s="8" t="s">
+      <c r="F33" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H33" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F33" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="G33" s="8" t="s">
+      <c r="I33" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="J33" s="13"/>
       <c r="K33" s="13"/>
@@ -3124,25 +3133,25 @@
         <v>1.08</v>
       </c>
       <c r="C34" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" s="8" t="s">
+      <c r="F34" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H34" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="G34" s="8" t="s">
+      <c r="I34" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="J34" s="13"/>
       <c r="K34" s="13"/>
@@ -3170,25 +3179,25 @@
         <v>1.08</v>
       </c>
       <c r="C35" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E35" s="8" t="s">
+      <c r="F35" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F35" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="G35" s="8" t="s">
+      <c r="I35" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
@@ -3216,25 +3225,25 @@
         <v>1.08</v>
       </c>
       <c r="C36" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="E36" s="8" t="s">
+      <c r="F36" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H36" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F36" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="G36" s="8" t="s">
+      <c r="I36" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
@@ -3262,25 +3271,25 @@
         <v>1.08</v>
       </c>
       <c r="C37" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="8" t="s">
+      <c r="F37" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F37" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="G37" s="8" t="s">
+      <c r="I37" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I37" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="J37" s="13"/>
       <c r="K37" s="13"/>
@@ -3309,20 +3318,20 @@
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F38" s="26"/>
       <c r="G38" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I38" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="J38" s="13"/>
       <c r="K38" s="13"/>
@@ -3355,20 +3364,20 @@
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F39" s="26"/>
       <c r="G39" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I39" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="J39" s="13"/>
       <c r="K39" s="13"/>
@@ -3401,20 +3410,20 @@
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E40" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F40" s="26"/>
       <c r="G40" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I40" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I40" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
@@ -3447,20 +3456,20 @@
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F41" s="26"/>
       <c r="G41" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I41" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I41" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
@@ -3492,22 +3501,22 @@
         <v>38.879999999999995</v>
       </c>
       <c r="C42" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="D42" s="8" t="s">
+      <c r="F42" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="H42" s="9" t="s">
         <v>126</v>
-      </c>
-      <c r="F42" s="27" t="s">
-        <v>293</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>128</v>
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="13"/>
@@ -3537,20 +3546,20 @@
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F43" s="26"/>
       <c r="G43" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H43" s="12">
         <v>805</v>
       </c>
       <c r="I43" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J43" s="13"/>
       <c r="K43" s="13"/>
@@ -3578,25 +3587,25 @@
         <v>0.43200000000000005</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="E44" s="13">
         <v>4700</v>
       </c>
       <c r="F44" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G44" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H44" s="12">
         <v>805</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J44" s="13"/>
       <c r="K44" s="13"/>
@@ -3624,25 +3633,25 @@
         <v>0.43200000000000005</v>
       </c>
       <c r="C45" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>130</v>
-      </c>
-      <c r="D45" s="8" t="s">
-        <v>132</v>
       </c>
       <c r="E45" s="13">
         <v>4700</v>
       </c>
       <c r="F45" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H45" s="12">
         <v>805</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J45" s="13"/>
       <c r="K45" s="13"/>
@@ -3670,25 +3679,25 @@
         <v>0.43200000000000005</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E46" s="13">
         <v>4700</v>
       </c>
       <c r="F46" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H46" s="12">
         <v>805</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J46" s="13"/>
       <c r="K46" s="13"/>
@@ -3717,20 +3726,20 @@
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F47" s="26"/>
       <c r="G47" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I47" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="I47" s="8" t="s">
-        <v>138</v>
       </c>
       <c r="J47" s="13"/>
       <c r="K47" s="13"/>
@@ -3759,22 +3768,22 @@
         <v>28</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E48" s="23" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="F48" s="20" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>140</v>
+        <v>301</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I48" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J48" s="13"/>
       <c r="K48" s="13"/>
@@ -3800,25 +3809,25 @@
         <v>0</v>
       </c>
       <c r="C49" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="G49" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F49" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="G49" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="H49" s="12">
         <v>1206</v>
       </c>
       <c r="I49" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J49" s="13"/>
       <c r="K49" s="13"/>
@@ -3830,13 +3839,13 @@
       <c r="Q49" s="13"/>
       <c r="R49" s="13"/>
       <c r="S49" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T49" s="13"/>
       <c r="U49" s="13"/>
       <c r="V49" s="13"/>
       <c r="W49" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3846,25 +3855,25 @@
         <v>0</v>
       </c>
       <c r="C50" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="G50" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="G50" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="H50" s="12">
         <v>1206</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J50" s="13"/>
       <c r="K50" s="13"/>
@@ -3876,13 +3885,13 @@
       <c r="Q50" s="13"/>
       <c r="R50" s="13"/>
       <c r="S50" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T50" s="13"/>
       <c r="U50" s="13"/>
       <c r="V50" s="13"/>
       <c r="W50" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -3892,25 +3901,25 @@
         <v>0</v>
       </c>
       <c r="C51" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="G51" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F51" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="H51" s="12">
         <v>1206</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J51" s="13"/>
       <c r="K51" s="13"/>
@@ -3922,13 +3931,13 @@
       <c r="Q51" s="13"/>
       <c r="R51" s="13"/>
       <c r="S51" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T51" s="13"/>
       <c r="U51" s="13"/>
       <c r="V51" s="13"/>
       <c r="W51" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -3938,25 +3947,25 @@
         <v>0</v>
       </c>
       <c r="C52" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="E52" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="G52" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F52" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="G52" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="H52" s="12">
         <v>1206</v>
       </c>
       <c r="I52" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J52" s="13"/>
       <c r="K52" s="13"/>
@@ -3968,13 +3977,13 @@
       <c r="Q52" s="13"/>
       <c r="R52" s="13"/>
       <c r="S52" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T52" s="13"/>
       <c r="U52" s="13"/>
       <c r="V52" s="13"/>
       <c r="W52" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -3984,25 +3993,25 @@
         <v>0</v>
       </c>
       <c r="C53" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="G53" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="D53" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F53" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="G53" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="H53" s="12">
         <v>1206</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J53" s="13"/>
       <c r="K53" s="13"/>
@@ -4014,13 +4023,13 @@
       <c r="Q53" s="13"/>
       <c r="R53" s="13"/>
       <c r="S53" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T53" s="13"/>
       <c r="U53" s="13"/>
       <c r="V53" s="13"/>
       <c r="W53" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4030,25 +4039,25 @@
         <v>0</v>
       </c>
       <c r="C54" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="G54" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="G54" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="H54" s="12">
         <v>1206</v>
       </c>
       <c r="I54" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J54" s="13"/>
       <c r="K54" s="13"/>
@@ -4060,13 +4069,13 @@
       <c r="Q54" s="13"/>
       <c r="R54" s="13"/>
       <c r="S54" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T54" s="13"/>
       <c r="U54" s="13"/>
       <c r="V54" s="13"/>
       <c r="W54" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4076,25 +4085,25 @@
         <v>0</v>
       </c>
       <c r="C55" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="G55" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F55" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="H55" s="12">
         <v>1206</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J55" s="13"/>
       <c r="K55" s="13"/>
@@ -4106,13 +4115,13 @@
       <c r="Q55" s="13"/>
       <c r="R55" s="13"/>
       <c r="S55" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T55" s="13"/>
       <c r="U55" s="13"/>
       <c r="V55" s="13"/>
       <c r="W55" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4122,25 +4131,25 @@
         <v>0</v>
       </c>
       <c r="C56" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="G56" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="F56" s="28" t="s">
-        <v>142</v>
-      </c>
-      <c r="G56" s="8" t="s">
-        <v>145</v>
       </c>
       <c r="H56" s="12">
         <v>1206</v>
       </c>
       <c r="I56" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J56" s="13"/>
       <c r="K56" s="13"/>
@@ -4152,13 +4161,13 @@
       <c r="Q56" s="13"/>
       <c r="R56" s="13"/>
       <c r="S56" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T56" s="13"/>
       <c r="U56" s="13"/>
       <c r="V56" s="13"/>
       <c r="W56" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4171,20 +4180,20 @@
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F57" s="26"/>
       <c r="G57" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I57" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J57" s="13"/>
       <c r="K57" s="13"/>
@@ -4202,7 +4211,7 @@
       <c r="S57" s="13"/>
       <c r="T57" s="13"/>
       <c r="U57" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="V57" s="13"/>
       <c r="W57" s="8" t="s">
@@ -4219,20 +4228,20 @@
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="8" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F58" s="26"/>
       <c r="G58" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I58" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J58" s="13"/>
       <c r="K58" s="13"/>
@@ -4250,7 +4259,7 @@
       <c r="S58" s="13"/>
       <c r="T58" s="13"/>
       <c r="U58" s="8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="V58" s="13"/>
       <c r="W58" s="8" t="s">
@@ -4267,20 +4276,20 @@
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F59" s="26"/>
       <c r="G59" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I59" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J59" s="13"/>
       <c r="K59" s="13"/>
@@ -4313,20 +4322,20 @@
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="8" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F60" s="26"/>
       <c r="G60" s="8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H60" s="9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I60" s="8" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="J60" s="13"/>
       <c r="K60" s="13"/>
@@ -4358,25 +4367,25 @@
         <v>1.08</v>
       </c>
       <c r="C61" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E61" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="D61" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E61" s="8" t="s">
+      <c r="F61" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="G61" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H61" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F61" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="G61" s="8" t="s">
+      <c r="I61" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I61" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="J61" s="13"/>
       <c r="K61" s="13"/>
@@ -4404,25 +4413,25 @@
         <v>1.08</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E62" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F62" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="G62" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H62" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F62" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="G62" s="8" t="s">
+      <c r="I62" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I62" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="J62" s="13"/>
       <c r="K62" s="13"/>
@@ -4450,25 +4459,25 @@
         <v>1.08</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E63" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F63" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="G63" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H63" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F63" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="G63" s="8" t="s">
+      <c r="I63" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="H63" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I63" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="J63" s="13"/>
       <c r="K63" s="13"/>
@@ -4496,25 +4505,25 @@
         <v>1.08</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E64" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F64" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="G64" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H64" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F64" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="G64" s="8" t="s">
+      <c r="I64" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I64" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="J64" s="13"/>
       <c r="K64" s="13"/>
@@ -4542,25 +4551,25 @@
         <v>1.08</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E65" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F65" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H65" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F65" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="G65" s="8" t="s">
+      <c r="I65" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="H65" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I65" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="J65" s="13"/>
       <c r="K65" s="13"/>
@@ -4588,25 +4597,25 @@
         <v>1.08</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E66" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F66" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="G66" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H66" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F66" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="G66" s="8" t="s">
+      <c r="I66" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="H66" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I66" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="J66" s="13"/>
       <c r="K66" s="13"/>
@@ -4634,25 +4643,25 @@
         <v>1.08</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E67" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F67" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="G67" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H67" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F67" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="G67" s="8" t="s">
+      <c r="I67" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I67" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="J67" s="13"/>
       <c r="K67" s="13"/>
@@ -4680,25 +4689,25 @@
         <v>1.08</v>
       </c>
       <c r="C68" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E68" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="F68" s="27" t="s">
+        <v>288</v>
+      </c>
+      <c r="G68" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H68" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="F68" s="27" t="s">
-        <v>292</v>
-      </c>
-      <c r="G68" s="8" t="s">
+      <c r="I68" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I68" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="J68" s="13"/>
       <c r="K68" s="13"/>
@@ -4727,22 +4736,22 @@
         <v>28</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E69" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="F69" s="28" t="s">
-        <v>28</v>
+        <v>177</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>309</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H69" s="12">
         <v>1206</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="J69" s="13"/>
       <c r="K69" s="13"/>
@@ -4754,13 +4763,13 @@
       <c r="Q69" s="13"/>
       <c r="R69" s="13"/>
       <c r="S69" s="8" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T69" s="13"/>
       <c r="U69" s="13"/>
       <c r="V69" s="13"/>
       <c r="W69" s="8" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -4772,23 +4781,23 @@
         <v>1.08</v>
       </c>
       <c r="C70" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E70" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F70" s="26"/>
       <c r="G70" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H70" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I70" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="H70" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I70" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="J70" s="13"/>
       <c r="K70" s="13"/>
@@ -4820,23 +4829,23 @@
         <v>1.08</v>
       </c>
       <c r="C71" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E71" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F71" s="26"/>
       <c r="G71" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I71" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I71" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="J71" s="13"/>
       <c r="K71" s="13"/>
@@ -4868,23 +4877,23 @@
         <v>1.08</v>
       </c>
       <c r="C72" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="D72" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="D72" s="8" t="s">
-        <v>184</v>
-      </c>
       <c r="E72" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F72" s="26"/>
       <c r="G72" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I72" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I72" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="J72" s="13"/>
       <c r="K72" s="13"/>
@@ -4916,23 +4925,23 @@
         <v>1.08</v>
       </c>
       <c r="C73" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F73" s="26"/>
       <c r="G73" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H73" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I73" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="H73" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I73" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="J73" s="13"/>
       <c r="K73" s="13"/>
@@ -4964,23 +4973,23 @@
         <v>1.08</v>
       </c>
       <c r="C74" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E74" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F74" s="26"/>
       <c r="G74" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H74" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I74" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="H74" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I74" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="J74" s="13"/>
       <c r="K74" s="13"/>
@@ -5012,23 +5021,23 @@
         <v>1.08</v>
       </c>
       <c r="C75" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F75" s="26"/>
       <c r="G75" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="I75" s="8" t="s">
         <v>89</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="I75" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="J75" s="13"/>
       <c r="K75" s="13"/>
@@ -5061,19 +5070,19 @@
         <v>28</v>
       </c>
       <c r="D76" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="E76" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F76" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="G76" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H76" s="9" t="s">
         <v>188</v>
-      </c>
-      <c r="E76" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="F76" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G76" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>191</v>
       </c>
       <c r="I76" s="8" t="s">
         <v>60</v>
@@ -5107,19 +5116,19 @@
         <v>28</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="F77" s="28" t="s">
-        <v>28</v>
+        <v>186</v>
+      </c>
+      <c r="F77" s="20" t="s">
+        <v>312</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="I77" s="8" t="s">
         <v>60</v>
@@ -5152,23 +5161,23 @@
         <v>39.96</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E78" s="8" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F78" s="26"/>
       <c r="G78" s="8" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I78" s="8" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="J78" s="13"/>
       <c r="K78" s="13"/>
@@ -5196,23 +5205,23 @@
         <v>1.08</v>
       </c>
       <c r="C79" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E79" s="8" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F79" s="26"/>
       <c r="G79" s="8" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="I79" s="8" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="J79" s="13"/>
       <c r="K79" s="13"/>
@@ -5241,20 +5250,20 @@
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="8" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E80" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F80" s="26"/>
       <c r="G80" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I80" s="8" t="s">
         <v>136</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="I80" s="8" t="s">
-        <v>138</v>
       </c>
       <c r="J80" s="13"/>
       <c r="K80" s="13"/>
@@ -5283,22 +5292,22 @@
         <v>22</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E81" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="F81" s="28" t="s">
-        <v>22</v>
+        <v>203</v>
+      </c>
+      <c r="F81" s="20" t="s">
+        <v>311</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="H81" s="12">
         <v>1820</v>
       </c>
       <c r="I81" s="8" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="J81" s="13"/>
       <c r="K81" s="13"/>
@@ -5326,45 +5335,45 @@
         <v>12.96</v>
       </c>
       <c r="C82" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E82" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F82" s="26"/>
       <c r="G82" s="8" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H82" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="I82" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="J82" s="13"/>
       <c r="K82" s="13"/>
       <c r="L82" s="8" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="M82" s="13"/>
       <c r="N82" s="8" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="O82" s="13">
         <v>9494367</v>
       </c>
       <c r="P82" s="8" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="Q82" s="13"/>
       <c r="R82" s="13"/>
       <c r="S82" s="13"/>
       <c r="T82" s="13"/>
       <c r="U82" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="V82" s="13"/>
       <c r="W82" s="8" t="s">
@@ -5381,22 +5390,22 @@
         <v>28</v>
       </c>
       <c r="D83" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E83" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="F83" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="G83" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="H83" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="I83" s="8" t="s">
         <v>219</v>
-      </c>
-      <c r="E83" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="F83" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="G83" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="H83" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="I83" s="8" t="s">
-        <v>222</v>
       </c>
       <c r="J83" s="13"/>
       <c r="K83" s="13"/>
@@ -5408,10 +5417,10 @@
       <c r="Q83" s="13"/>
       <c r="R83" s="13"/>
       <c r="S83" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="T83" s="8" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="U83" s="13"/>
       <c r="V83" s="13"/>
@@ -5428,25 +5437,25 @@
         <v>2.16</v>
       </c>
       <c r="C84" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F84" s="27" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G84" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H84" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="I84" s="8" t="s">
         <v>107</v>
-      </c>
-      <c r="H84" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="I84" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="J84" s="13"/>
       <c r="K84" s="13"/>
@@ -5474,19 +5483,19 @@
         <v>23.759999999999998</v>
       </c>
       <c r="C85" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E85" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F85" s="24" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H85" s="16">
         <v>2007100</v>
@@ -5497,7 +5506,7 @@
       <c r="J85" s="13"/>
       <c r="K85" s="13"/>
       <c r="L85" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M85" s="13"/>
       <c r="N85" s="13"/>
@@ -5527,20 +5536,20 @@
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E86" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F86" s="26"/>
       <c r="G86" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H86" s="12">
         <v>805</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J86" s="13"/>
       <c r="K86" s="13"/>
@@ -5569,22 +5578,22 @@
         <v>28</v>
       </c>
       <c r="D87" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>231</v>
+      </c>
+      <c r="F87" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="G87" s="22" t="s">
+        <v>232</v>
+      </c>
+      <c r="H87" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="E87" s="22" t="s">
+      <c r="I87" s="8" t="s">
         <v>234</v>
-      </c>
-      <c r="F87" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G87" s="22" t="s">
-        <v>235</v>
-      </c>
-      <c r="H87" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="I87" s="8" t="s">
-        <v>237</v>
       </c>
       <c r="J87" s="13"/>
       <c r="K87" s="13"/>
@@ -5613,22 +5622,22 @@
         <v>28</v>
       </c>
       <c r="D88" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E88" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="F88" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="G88" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="H88" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="I88" s="8" t="s">
         <v>239</v>
-      </c>
-      <c r="F88" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G88" s="8" t="s">
-        <v>240</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="I88" s="8" t="s">
-        <v>242</v>
       </c>
       <c r="J88" s="13"/>
       <c r="K88" s="13"/>
@@ -5657,20 +5666,20 @@
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E89" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F89" s="26"/>
       <c r="G89" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H89" s="12">
         <v>805</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J89" s="13"/>
       <c r="K89" s="13"/>
@@ -5699,20 +5708,20 @@
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E90" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F90" s="26"/>
       <c r="G90" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H90" s="12">
         <v>805</v>
       </c>
       <c r="I90" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J90" s="13"/>
       <c r="K90" s="13"/>
@@ -5741,20 +5750,20 @@
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E91" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F91" s="26"/>
       <c r="G91" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H91" s="12">
         <v>805</v>
       </c>
       <c r="I91" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J91" s="13"/>
       <c r="K91" s="13"/>
@@ -5783,20 +5792,20 @@
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E92" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F92" s="26"/>
       <c r="G92" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H92" s="12">
         <v>805</v>
       </c>
       <c r="I92" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J92" s="13"/>
       <c r="K92" s="13"/>
@@ -5824,38 +5833,38 @@
         <v>10.8</v>
       </c>
       <c r="C93" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="D93" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="E93" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F93" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="G93" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="D93" s="8" t="s">
+      <c r="H93" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="E93" s="8" t="s">
+      <c r="I93" s="8" t="s">
         <v>250</v>
-      </c>
-      <c r="F93" s="27" t="s">
-        <v>254</v>
-      </c>
-      <c r="G93" s="8" t="s">
-        <v>251</v>
-      </c>
-      <c r="H93" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="I93" s="8" t="s">
-        <v>253</v>
       </c>
       <c r="J93" s="13"/>
       <c r="K93" s="13"/>
       <c r="L93" s="13"/>
       <c r="M93" s="13"/>
       <c r="N93" s="8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="O93" s="13">
         <v>959704</v>
       </c>
       <c r="P93" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q93" s="13"/>
       <c r="R93" s="13"/>
@@ -5877,22 +5886,22 @@
         <v>28</v>
       </c>
       <c r="D94" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="E94" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="F94" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="G94" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="I94" s="8" t="s">
         <v>256</v>
-      </c>
-      <c r="E94" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="F94" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="G94" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="I94" s="8" t="s">
-        <v>259</v>
       </c>
       <c r="J94" s="13"/>
       <c r="K94" s="13"/>
@@ -5921,22 +5930,22 @@
         <v>28</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E95" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="F95" s="28" t="s">
-        <v>28</v>
+        <v>254</v>
+      </c>
+      <c r="F95" s="20" t="s">
+        <v>313</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H95" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J95" s="13"/>
       <c r="K95" s="13"/>
@@ -5965,22 +5974,22 @@
         <v>28</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E96" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="F96" s="28" t="s">
-        <v>28</v>
+        <v>254</v>
+      </c>
+      <c r="F96" s="20" t="s">
+        <v>313</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="I96" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="J96" s="13"/>
       <c r="K96" s="13"/>
@@ -6009,17 +6018,17 @@
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F97" s="26"/>
       <c r="G97" s="8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="I97" s="13"/>
       <c r="J97" s="13"/>
@@ -6049,43 +6058,43 @@
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="8" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E98" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F98" s="26"/>
       <c r="G98" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="H98" s="9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I98" s="8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="J98" s="13"/>
       <c r="K98" s="13"/>
       <c r="L98" s="13"/>
       <c r="M98" s="13"/>
       <c r="N98" s="8" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="O98" s="13">
         <v>1652419</v>
       </c>
       <c r="P98" s="8" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Q98" s="8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="R98" s="13"/>
       <c r="S98" s="13"/>
       <c r="T98" s="13"/>
       <c r="U98" s="13"/>
       <c r="V98" s="8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="W98" s="8" t="s">
         <v>27</v>
@@ -6098,25 +6107,25 @@
         <v>0</v>
       </c>
       <c r="C99" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F99" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="G99" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="I99" s="8" t="s">
         <v>272</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="F99" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="G99" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="H99" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="I99" s="8" t="s">
-        <v>275</v>
       </c>
       <c r="J99" s="13"/>
       <c r="K99" s="13"/>
@@ -6142,25 +6151,25 @@
         <v>0</v>
       </c>
       <c r="C100" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F100" s="21" t="s">
+        <v>297</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H100" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="I100" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="F100" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="H100" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="I100" s="8" t="s">
-        <v>279</v>
       </c>
       <c r="J100" s="13"/>
       <c r="K100" s="13"/>
@@ -6186,25 +6195,25 @@
         <v>0</v>
       </c>
       <c r="C101" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="F101" s="20" t="s">
+        <v>297</v>
+      </c>
+      <c r="G101" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H101" s="9" t="s">
+        <v>275</v>
+      </c>
+      <c r="I101" s="8" t="s">
         <v>276</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="F101" s="20" t="s">
-        <v>302</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="H101" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="I101" s="8" t="s">
-        <v>279</v>
       </c>
       <c r="J101" s="13"/>
       <c r="K101" s="13"/>
@@ -6230,25 +6239,25 @@
         <v>0</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D102" s="8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E102" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F102" s="20" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="I102" s="8" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="J102" s="13"/>
       <c r="K102" s="13"/>
@@ -6274,25 +6283,25 @@
         <v>0</v>
       </c>
       <c r="C103" s="11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D103" s="8" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E103" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="G103" s="8" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H103" s="9" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J103" s="13"/>
       <c r="K103" s="13"/>
@@ -6394,7 +6403,7 @@
     </row>
     <row r="108" spans="1:23">
       <c r="A108" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>

--- a/KMO_IO_M/V2_4OUT/Quote_t-r9w79317a-20sets-kmo_io_mv2_4 2019-6-27.xlsx
+++ b/KMO_IO_M/V2_4OUT/Quote_t-r9w79317a-20sets-kmo_io_mv2_4 2019-6-27.xlsx
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="T-R9W79317A-20sets-KMO_IO_MV2_4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="319">
   <si>
     <t>20sets</t>
   </si>
@@ -973,9 +973,6 @@
     <t>OQ0532010000G</t>
   </si>
   <si>
-    <t>0022057048</t>
-  </si>
-  <si>
     <t xml:space="preserve">PJ-002BH-SMT-TR </t>
   </si>
   <si>
@@ -1018,9 +1015,6 @@
     <t xml:space="preserve">UWT1H221MNL1GS </t>
   </si>
   <si>
-    <t xml:space="preserve">  S3B-XH-A(LF)(SN) </t>
-  </si>
-  <si>
     <t>61201421621</t>
   </si>
   <si>
@@ -1028,6 +1022,18 @@
   </si>
   <si>
     <t>CAY+I27:R2716-682J4LF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22-05-7048-04 </t>
+  </si>
+  <si>
+    <t>CONNECTOR kls1-2.54-04-h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-KLS1-2.54-04-R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  DS1069-03MRW6XB</t>
   </si>
 </sst>
 </file>
@@ -1039,7 +1045,7 @@
     <numFmt numFmtId="165" formatCode="\$#,##0.000;\-\$#,##0.000"/>
     <numFmt numFmtId="166" formatCode="\$#,##0_);[Red]\(\$#,##0\)"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1112,13 +1118,6 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1169,7 +1168,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1241,9 +1240,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1570,8 +1566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1580,7 +1576,7 @@
     <col min="2" max="2" width="9.42578125" style="2" customWidth="1"/>
     <col min="3" max="3" width="51" style="3" customWidth="1"/>
     <col min="5" max="5" width="26.28515625" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.85546875" style="4" customWidth="1"/>
     <col min="9" max="9" width="24.42578125" customWidth="1"/>
@@ -1603,8 +1599,8 @@
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
-        <v>306</v>
+      <c r="F1" s="24" t="s">
+        <v>305</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>5</v>
@@ -1724,7 +1720,7 @@
       <c r="F3" s="21" t="s">
         <v>291</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="28" t="s">
         <v>31</v>
       </c>
       <c r="H3" s="9" t="s">
@@ -1765,7 +1761,7 @@
       <c r="E4" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="26"/>
+      <c r="F4" s="25"/>
       <c r="G4" s="8" t="s">
         <v>36</v>
       </c>
@@ -1807,7 +1803,7 @@
       <c r="E5" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="26"/>
+      <c r="F5" s="25"/>
       <c r="G5" s="8" t="s">
         <v>36</v>
       </c>
@@ -1849,7 +1845,7 @@
       <c r="E6" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="8" t="s">
         <v>36</v>
       </c>
@@ -1891,7 +1887,7 @@
       <c r="E7" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="26"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="8" t="s">
         <v>41</v>
       </c>
@@ -1943,7 +1939,7 @@
       <c r="E8" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="26"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="8" t="s">
         <v>41</v>
       </c>
@@ -1995,7 +1991,7 @@
       <c r="E9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="26"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="8" t="s">
         <v>41</v>
       </c>
@@ -2047,7 +2043,7 @@
       <c r="E10" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="26"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="8" t="s">
         <v>41</v>
       </c>
@@ -2099,7 +2095,7 @@
       <c r="E11" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F11" s="26"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="8" t="s">
         <v>36</v>
       </c>
@@ -2141,7 +2137,7 @@
       <c r="E12" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="F12" s="26"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="8" t="s">
         <v>36</v>
       </c>
@@ -2185,7 +2181,7 @@
       <c r="E13" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F13" s="27" t="s">
+      <c r="F13" s="26" t="s">
         <v>285</v>
       </c>
       <c r="G13" s="8" t="s">
@@ -2231,7 +2227,7 @@
       <c r="E14" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F14" s="26"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="8" t="s">
         <v>36</v>
       </c>
@@ -2273,7 +2269,7 @@
       <c r="E15" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="26"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="8" t="s">
         <v>36</v>
       </c>
@@ -2317,7 +2313,7 @@
       <c r="E16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="F16" s="27" t="s">
+      <c r="F16" s="26" t="s">
         <v>285</v>
       </c>
       <c r="G16" s="8" t="s">
@@ -2361,13 +2357,13 @@
         <v>66</v>
       </c>
       <c r="E17" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="G17" s="8" t="s">
         <v>302</v>
-      </c>
-      <c r="F17" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>303</v>
       </c>
       <c r="H17" s="12">
         <v>805</v>
@@ -2411,7 +2407,7 @@
       <c r="E18" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="F18" s="27" t="s">
+      <c r="F18" s="26" t="s">
         <v>286</v>
       </c>
       <c r="G18" s="8" t="s">
@@ -2455,7 +2451,7 @@
       <c r="E19" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F19" s="26"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="8" t="s">
         <v>77</v>
       </c>
@@ -2497,7 +2493,7 @@
       <c r="E20" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="F20" s="26"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="8" t="s">
         <v>77</v>
       </c>
@@ -2539,7 +2535,7 @@
       <c r="E21" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F21" s="26"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="8" t="s">
         <v>77</v>
       </c>
@@ -2581,7 +2577,7 @@
       <c r="E22" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="26"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="8" t="s">
         <v>77</v>
       </c>
@@ -2623,7 +2619,7 @@
       <c r="E23" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="F23" s="26"/>
+      <c r="F23" s="25"/>
       <c r="G23" s="8" t="s">
         <v>77</v>
       </c>
@@ -2665,7 +2661,7 @@
       <c r="E24" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="26"/>
+      <c r="F24" s="25"/>
       <c r="G24" s="8" t="s">
         <v>87</v>
       </c>
@@ -2712,7 +2708,7 @@
         <v>91</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>91</v>
@@ -2761,7 +2757,7 @@
       <c r="E26" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="F26" s="27" t="s">
+      <c r="F26" s="26" t="s">
         <v>287</v>
       </c>
       <c r="G26" s="8" t="s">
@@ -2814,16 +2810,16 @@
         <v>100</v>
       </c>
       <c r="F27" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="H27" s="30" t="s">
-        <v>316</v>
+      <c r="H27" s="29" t="s">
+        <v>314</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="J27" s="13"/>
       <c r="K27" s="13"/>
@@ -2862,7 +2858,7 @@
         <v>100</v>
       </c>
       <c r="F28" s="20" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>87</v>
@@ -2911,7 +2907,7 @@
       <c r="E29" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F29" s="27" t="s">
+      <c r="F29" s="26" t="s">
         <v>288</v>
       </c>
       <c r="G29" s="8" t="s">
@@ -2957,7 +2953,7 @@
       <c r="E30" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="26" t="s">
         <v>288</v>
       </c>
       <c r="G30" s="8" t="s">
@@ -3003,7 +2999,7 @@
       <c r="E31" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F31" s="27" t="s">
+      <c r="F31" s="26" t="s">
         <v>288</v>
       </c>
       <c r="G31" s="8" t="s">
@@ -3049,7 +3045,7 @@
       <c r="E32" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F32" s="27" t="s">
+      <c r="F32" s="26" t="s">
         <v>288</v>
       </c>
       <c r="G32" s="8" t="s">
@@ -3095,7 +3091,7 @@
       <c r="E33" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F33" s="27" t="s">
+      <c r="F33" s="26" t="s">
         <v>288</v>
       </c>
       <c r="G33" s="8" t="s">
@@ -3141,7 +3137,7 @@
       <c r="E34" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F34" s="27" t="s">
+      <c r="F34" s="26" t="s">
         <v>288</v>
       </c>
       <c r="G34" s="8" t="s">
@@ -3187,7 +3183,7 @@
       <c r="E35" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F35" s="27" t="s">
+      <c r="F35" s="26" t="s">
         <v>288</v>
       </c>
       <c r="G35" s="8" t="s">
@@ -3233,7 +3229,7 @@
       <c r="E36" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F36" s="27" t="s">
+      <c r="F36" s="26" t="s">
         <v>288</v>
       </c>
       <c r="G36" s="8" t="s">
@@ -3279,7 +3275,7 @@
       <c r="E37" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F37" s="27" t="s">
+      <c r="F37" s="26" t="s">
         <v>288</v>
       </c>
       <c r="G37" s="8" t="s">
@@ -3323,7 +3319,7 @@
       <c r="E38" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F38" s="26"/>
+      <c r="F38" s="25"/>
       <c r="G38" s="8" t="s">
         <v>87</v>
       </c>
@@ -3369,7 +3365,7 @@
       <c r="E39" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F39" s="26"/>
+      <c r="F39" s="25"/>
       <c r="G39" s="8" t="s">
         <v>87</v>
       </c>
@@ -3415,7 +3411,7 @@
       <c r="E40" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F40" s="26"/>
+      <c r="F40" s="25"/>
       <c r="G40" s="8" t="s">
         <v>87</v>
       </c>
@@ -3461,7 +3457,7 @@
       <c r="E41" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F41" s="26"/>
+      <c r="F41" s="25"/>
       <c r="G41" s="8" t="s">
         <v>87</v>
       </c>
@@ -3509,7 +3505,7 @@
       <c r="E42" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="F42" s="27" t="s">
+      <c r="F42" s="26" t="s">
         <v>289</v>
       </c>
       <c r="G42" s="8" t="s">
@@ -3551,7 +3547,7 @@
       <c r="E43" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F43" s="26"/>
+      <c r="F43" s="25"/>
       <c r="G43" s="8" t="s">
         <v>77</v>
       </c>
@@ -3595,7 +3591,7 @@
       <c r="E44" s="13">
         <v>4700</v>
       </c>
-      <c r="F44" s="27" t="s">
+      <c r="F44" s="26" t="s">
         <v>128</v>
       </c>
       <c r="G44" s="8" t="s">
@@ -3641,7 +3637,7 @@
       <c r="E45" s="13">
         <v>4700</v>
       </c>
-      <c r="F45" s="27" t="s">
+      <c r="F45" s="26" t="s">
         <v>128</v>
       </c>
       <c r="G45" s="8" t="s">
@@ -3687,7 +3683,7 @@
       <c r="E46" s="13">
         <v>4700</v>
       </c>
-      <c r="F46" s="27" t="s">
+      <c r="F46" s="26" t="s">
         <v>128</v>
       </c>
       <c r="G46" s="8" t="s">
@@ -3731,7 +3727,7 @@
       <c r="E47" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F47" s="26"/>
+      <c r="F47" s="25"/>
       <c r="G47" s="8" t="s">
         <v>134</v>
       </c>
@@ -3774,10 +3770,10 @@
         <v>293</v>
       </c>
       <c r="F48" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="G48" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>301</v>
       </c>
       <c r="H48" s="9" t="s">
         <v>135</v>
@@ -3818,7 +3814,7 @@
         <v>141</v>
       </c>
       <c r="F49" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G49" s="8" t="s">
         <v>142</v>
@@ -3864,7 +3860,7 @@
         <v>141</v>
       </c>
       <c r="F50" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>142</v>
@@ -3910,7 +3906,7 @@
         <v>141</v>
       </c>
       <c r="F51" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>142</v>
@@ -3956,7 +3952,7 @@
         <v>141</v>
       </c>
       <c r="F52" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G52" s="8" t="s">
         <v>142</v>
@@ -4002,7 +3998,7 @@
         <v>141</v>
       </c>
       <c r="F53" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G53" s="8" t="s">
         <v>142</v>
@@ -4048,7 +4044,7 @@
         <v>141</v>
       </c>
       <c r="F54" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G54" s="8" t="s">
         <v>142</v>
@@ -4094,7 +4090,7 @@
         <v>141</v>
       </c>
       <c r="F55" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G55" s="8" t="s">
         <v>142</v>
@@ -4140,7 +4136,7 @@
         <v>141</v>
       </c>
       <c r="F56" s="20" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>142</v>
@@ -4185,7 +4181,7 @@
       <c r="E57" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F57" s="26"/>
+      <c r="F57" s="25"/>
       <c r="G57" s="8" t="s">
         <v>154</v>
       </c>
@@ -4233,7 +4229,7 @@
       <c r="E58" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F58" s="26"/>
+      <c r="F58" s="25"/>
       <c r="G58" s="8" t="s">
         <v>154</v>
       </c>
@@ -4281,7 +4277,7 @@
       <c r="E59" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F59" s="26"/>
+      <c r="F59" s="25"/>
       <c r="G59" s="8" t="s">
         <v>154</v>
       </c>
@@ -4327,7 +4323,7 @@
       <c r="E60" s="8" t="s">
         <v>154</v>
       </c>
-      <c r="F60" s="26"/>
+      <c r="F60" s="25"/>
       <c r="G60" s="8" t="s">
         <v>154</v>
       </c>
@@ -4375,7 +4371,7 @@
       <c r="E61" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F61" s="27" t="s">
+      <c r="F61" s="26" t="s">
         <v>288</v>
       </c>
       <c r="G61" s="8" t="s">
@@ -4421,7 +4417,7 @@
       <c r="E62" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F62" s="27" t="s">
+      <c r="F62" s="26" t="s">
         <v>288</v>
       </c>
       <c r="G62" s="8" t="s">
@@ -4467,7 +4463,7 @@
       <c r="E63" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F63" s="27" t="s">
+      <c r="F63" s="26" t="s">
         <v>288</v>
       </c>
       <c r="G63" s="8" t="s">
@@ -4513,7 +4509,7 @@
       <c r="E64" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F64" s="27" t="s">
+      <c r="F64" s="26" t="s">
         <v>288</v>
       </c>
       <c r="G64" s="8" t="s">
@@ -4559,7 +4555,7 @@
       <c r="E65" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F65" s="27" t="s">
+      <c r="F65" s="26" t="s">
         <v>288</v>
       </c>
       <c r="G65" s="8" t="s">
@@ -4605,7 +4601,7 @@
       <c r="E66" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="27" t="s">
+      <c r="F66" s="26" t="s">
         <v>288</v>
       </c>
       <c r="G66" s="8" t="s">
@@ -4651,7 +4647,7 @@
       <c r="E67" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F67" s="27" t="s">
+      <c r="F67" s="26" t="s">
         <v>288</v>
       </c>
       <c r="G67" s="8" t="s">
@@ -4697,7 +4693,7 @@
       <c r="E68" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="F68" s="27" t="s">
+      <c r="F68" s="26" t="s">
         <v>288</v>
       </c>
       <c r="G68" s="8" t="s">
@@ -4742,7 +4738,7 @@
         <v>177</v>
       </c>
       <c r="F69" s="20" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G69" s="8" t="s">
         <v>142</v>
@@ -4789,7 +4785,7 @@
       <c r="E70" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F70" s="26"/>
+      <c r="F70" s="25"/>
       <c r="G70" s="8" t="s">
         <v>87</v>
       </c>
@@ -4837,7 +4833,7 @@
       <c r="E71" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F71" s="26"/>
+      <c r="F71" s="25"/>
       <c r="G71" s="8" t="s">
         <v>87</v>
       </c>
@@ -4885,7 +4881,7 @@
       <c r="E72" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F72" s="26"/>
+      <c r="F72" s="25"/>
       <c r="G72" s="8" t="s">
         <v>87</v>
       </c>
@@ -4933,7 +4929,7 @@
       <c r="E73" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="F73" s="26"/>
+      <c r="F73" s="25"/>
       <c r="G73" s="8" t="s">
         <v>87</v>
       </c>
@@ -4981,7 +4977,7 @@
       <c r="E74" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F74" s="26"/>
+      <c r="F74" s="25"/>
       <c r="G74" s="8" t="s">
         <v>87</v>
       </c>
@@ -5029,7 +5025,7 @@
       <c r="E75" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F75" s="26"/>
+      <c r="F75" s="25"/>
       <c r="G75" s="8" t="s">
         <v>87</v>
       </c>
@@ -5076,7 +5072,7 @@
         <v>186</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G76" s="8" t="s">
         <v>187</v>
@@ -5122,7 +5118,7 @@
         <v>186</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G77" s="8" t="s">
         <v>187</v>
@@ -5169,7 +5165,7 @@
       <c r="E78" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F78" s="26"/>
+      <c r="F78" s="25"/>
       <c r="G78" s="8" t="s">
         <v>193</v>
       </c>
@@ -5213,7 +5209,7 @@
       <c r="E79" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F79" s="26"/>
+      <c r="F79" s="25"/>
       <c r="G79" s="8" t="s">
         <v>198</v>
       </c>
@@ -5255,7 +5251,7 @@
       <c r="E80" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="F80" s="26"/>
+      <c r="F80" s="25"/>
       <c r="G80" s="8" t="s">
         <v>134</v>
       </c>
@@ -5298,7 +5294,7 @@
         <v>203</v>
       </c>
       <c r="F81" s="20" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G81" s="8" t="s">
         <v>204</v>
@@ -5343,7 +5339,7 @@
       <c r="E82" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F82" s="26"/>
+      <c r="F82" s="25"/>
       <c r="G82" s="8" t="s">
         <v>209</v>
       </c>
@@ -5396,7 +5392,7 @@
         <v>217</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G83" s="8" t="s">
         <v>217</v>
@@ -5445,7 +5441,7 @@
       <c r="E84" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="F84" s="27" t="s">
+      <c r="F84" s="26" t="s">
         <v>290</v>
       </c>
       <c r="G84" s="8" t="s">
@@ -5491,17 +5487,17 @@
       <c r="E85" s="8" t="s">
         <v>227</v>
       </c>
-      <c r="F85" s="24" t="s">
-        <v>298</v>
+      <c r="F85" s="20" t="s">
+        <v>317</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>227</v>
+        <v>315</v>
       </c>
       <c r="H85" s="16">
         <v>2007100</v>
       </c>
       <c r="I85" s="8" t="s">
-        <v>25</v>
+        <v>316</v>
       </c>
       <c r="J85" s="13"/>
       <c r="K85" s="13"/>
@@ -5541,7 +5537,7 @@
       <c r="E86" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F86" s="26"/>
+      <c r="F86" s="25"/>
       <c r="G86" s="8" t="s">
         <v>77</v>
       </c>
@@ -5584,7 +5580,7 @@
         <v>231</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G87" s="22" t="s">
         <v>232</v>
@@ -5628,7 +5624,7 @@
         <v>236</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G88" s="8" t="s">
         <v>237</v>
@@ -5671,7 +5667,7 @@
       <c r="E89" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="F89" s="26"/>
+      <c r="F89" s="25"/>
       <c r="G89" s="8" t="s">
         <v>77</v>
       </c>
@@ -5713,7 +5709,7 @@
       <c r="E90" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="F90" s="26"/>
+      <c r="F90" s="25"/>
       <c r="G90" s="8" t="s">
         <v>77</v>
       </c>
@@ -5755,7 +5751,7 @@
       <c r="E91" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="F91" s="26"/>
+      <c r="F91" s="25"/>
       <c r="G91" s="8" t="s">
         <v>77</v>
       </c>
@@ -5797,7 +5793,7 @@
       <c r="E92" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F92" s="26"/>
+      <c r="F92" s="25"/>
       <c r="G92" s="8" t="s">
         <v>77</v>
       </c>
@@ -5841,7 +5837,7 @@
       <c r="E93" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="F93" s="27" t="s">
+      <c r="F93" s="26" t="s">
         <v>251</v>
       </c>
       <c r="G93" s="8" t="s">
@@ -5892,7 +5888,7 @@
         <v>254</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>255</v>
@@ -5936,7 +5932,7 @@
         <v>254</v>
       </c>
       <c r="F95" s="20" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>255</v>
@@ -5980,7 +5976,7 @@
         <v>254</v>
       </c>
       <c r="F96" s="20" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>255</v>
@@ -6023,7 +6019,7 @@
       <c r="E97" s="8" t="s">
         <v>260</v>
       </c>
-      <c r="F97" s="26"/>
+      <c r="F97" s="25"/>
       <c r="G97" s="8" t="s">
         <v>260</v>
       </c>
@@ -6063,7 +6059,7 @@
       <c r="E98" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="F98" s="26"/>
+      <c r="F98" s="25"/>
       <c r="G98" s="8" t="s">
         <v>263</v>
       </c>
@@ -6329,7 +6325,7 @@
       <c r="C104" s="7"/>
       <c r="D104" s="13"/>
       <c r="E104" s="13"/>
-      <c r="F104" s="26"/>
+      <c r="F104" s="25"/>
       <c r="G104" s="13"/>
       <c r="H104" s="12"/>
       <c r="I104" s="13"/>
@@ -6354,7 +6350,7 @@
       <c r="C105" s="7"/>
       <c r="D105" s="13"/>
       <c r="E105" s="13"/>
-      <c r="F105" s="25"/>
+      <c r="F105" s="24"/>
       <c r="G105" s="13"/>
       <c r="H105" s="12"/>
       <c r="I105" s="13"/>
@@ -6379,7 +6375,7 @@
       <c r="C106" s="7"/>
       <c r="D106" s="13"/>
       <c r="E106" s="13"/>
-      <c r="F106" s="25"/>
+      <c r="F106" s="24"/>
       <c r="G106" s="13"/>
       <c r="H106" s="12"/>
       <c r="I106" s="13"/>
